--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1611912.107577689</v>
+        <v>1608384.783133179</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28006371.1644838</v>
+        <v>28006371.16448382</v>
       </c>
     </row>
     <row r="8">
@@ -1372,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>343.1184377552661</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>352.7018927164534</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>129.4975790168359</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>7.684819015232499</v>
       </c>
       <c r="S13" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.2110085144546</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.2207262199194</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U14" t="n">
         <v>255.6171309891995</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>260.7769435185592</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>162.4174940231161</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.38705742365079</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>111.4861074817641</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S16" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.2110085144546</v>
@@ -1824,7 +1824,7 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>10.4318261683859</v>
       </c>
       <c r="H17" t="n">
-        <v>270.6275892972905</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>148.3654866527941</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.90542902947185</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T19" t="n">
         <v>237.2110085144546</v>
@@ -2061,7 +2061,7 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3678052820416</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>352.2683662369227</v>
+        <v>378.8392509229761</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2241,16 +2241,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>153.3630351679486</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>152.4457771291503</v>
       </c>
       <c r="U22" t="n">
-        <v>76.05849984758738</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2329,13 +2329,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3678052820416</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.6171309891995</v>
@@ -2383,10 +2383,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>253.1485643056944</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>236.1301143993296</v>
       </c>
     </row>
     <row r="24">
@@ -2557,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>346.946076971135</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2566,10 +2566,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>275.145931902475</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6171309891995</v>
+        <v>73.18127267729756</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2794,10 +2794,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>97.4451900820888</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>216.6311553655001</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -3034,10 +3034,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>391.5876559719247</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6171309891995</v>
+        <v>82.41626623918614</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3094,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3271,16 +3271,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>301.5430105198729</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>317.4621053024236</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.3630351679486</v>
+        <v>65.34382382148539</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.2110085144546</v>
       </c>
       <c r="U37" t="n">
-        <v>194.463726013005</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>328.9190010653431</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>195.2784532475204</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>40.69945925386154</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.2110085144546</v>
@@ -3720,16 +3720,16 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.11061768134262</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>264.7321342400243</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>210.2770796227834</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>279.9524280426321</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>105.779393780565</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>7.684819015232499</v>
       </c>
       <c r="S43" t="n">
-        <v>87.63998732953605</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.2110085144546</v>
@@ -3957,10 +3957,10 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>98.68883827214742</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3678052820416</v>
+        <v>264.1370318909527</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>59.3923632164781</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>132.8317343628</v>
       </c>
       <c r="H46" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S46" t="n">
         <v>153.3630351679486</v>
@@ -4194,10 +4194,10 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V46" t="n">
-        <v>9.774833716835811</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.042187805416</v>
+        <v>869.6332188020963</v>
       </c>
       <c r="C11" t="n">
-        <v>811.1414578187157</v>
+        <v>869.6332188020963</v>
       </c>
       <c r="D11" t="n">
-        <v>387.848837003716</v>
+        <v>869.6332188020963</v>
       </c>
       <c r="E11" t="n">
-        <v>41.2645564428411</v>
+        <v>443.6562789499538</v>
       </c>
       <c r="F11" t="n">
-        <v>41.2645564428411</v>
+        <v>443.6562789499538</v>
       </c>
       <c r="G11" t="n">
         <v>41.2645564428411</v>
@@ -5047,7 +5047,7 @@
         <v>420.8787884255855</v>
       </c>
       <c r="L11" t="n">
-        <v>684.139341877132</v>
+        <v>684.1393418771319</v>
       </c>
       <c r="M11" t="n">
         <v>982.2137160547604</v>
@@ -5068,25 +5068,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S11" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T11" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U11" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V11" t="n">
-        <v>2063.227822142055</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="W11" t="n">
-        <v>2063.227822142055</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="X11" t="n">
-        <v>2063.227822142055</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="Y11" t="n">
-        <v>1657.890552096946</v>
+        <v>1289.481583093626</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>60.41309749025406</v>
       </c>
       <c r="J12" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K12" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L12" t="n">
-        <v>789.8601875678153</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.739242507881</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N12" t="n">
-        <v>1270.202718950985</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O12" t="n">
-        <v>1490.228323359869</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P12" t="n">
-        <v>1663.676645433401</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q12" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R12" t="n">
         <v>1815.226133375711</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>541.9373525018101</v>
+        <v>510.2509607816129</v>
       </c>
       <c r="C13" t="n">
-        <v>369.9647893807261</v>
+        <v>338.2783976605289</v>
       </c>
       <c r="D13" t="n">
-        <v>206.6480165074968</v>
+        <v>338.2783976605289</v>
       </c>
       <c r="E13" t="n">
-        <v>206.6480165074968</v>
+        <v>172.0701918133824</v>
       </c>
       <c r="F13" t="n">
-        <v>206.6480165074968</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="G13" t="n">
         <v>41.2645564428411</v>
@@ -5205,19 +5205,19 @@
         <v>485.278018711607</v>
       </c>
       <c r="L13" t="n">
-        <v>967.2500461423929</v>
+        <v>590.861152551228</v>
       </c>
       <c r="M13" t="n">
-        <v>1327.286896024836</v>
+        <v>1101.510038531387</v>
       </c>
       <c r="N13" t="n">
-        <v>1835.789156099443</v>
+        <v>1306.713334418341</v>
       </c>
       <c r="O13" t="n">
-        <v>1934.524592065107</v>
+        <v>1783.151094687208</v>
       </c>
       <c r="P13" t="n">
-        <v>2015.912244298022</v>
+        <v>1864.538746920123</v>
       </c>
       <c r="Q13" t="n">
         <v>2063.227822142055</v>
@@ -5226,25 +5226,25 @@
         <v>2055.465378692325</v>
       </c>
       <c r="S13" t="n">
-        <v>1900.553221957024</v>
+        <v>2055.465378692325</v>
       </c>
       <c r="T13" t="n">
-        <v>1660.946142649494</v>
+        <v>1815.858299384795</v>
       </c>
       <c r="U13" t="n">
-        <v>1380.809340130222</v>
+        <v>1535.721496865524</v>
       </c>
       <c r="V13" t="n">
-        <v>1099.097872738251</v>
+        <v>1254.010029473553</v>
       </c>
       <c r="W13" t="n">
-        <v>824.245468910764</v>
+        <v>979.1576256460658</v>
       </c>
       <c r="X13" t="n">
-        <v>824.245468910764</v>
+        <v>736.5937290918708</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.1033212138757</v>
+        <v>510.2509607816129</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>467.2414962949835</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="C14" t="n">
-        <v>467.2414962949835</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="D14" t="n">
-        <v>467.2414962949835</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="E14" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="F14" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="G14" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H14" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I14" t="n">
-        <v>80.64296560125334</v>
+        <v>80.64296560125354</v>
       </c>
       <c r="J14" t="n">
-        <v>213.5062128414249</v>
+        <v>213.5062128414254</v>
       </c>
       <c r="K14" t="n">
-        <v>420.8787884255851</v>
+        <v>420.8787884255858</v>
       </c>
       <c r="L14" t="n">
-        <v>684.1393418771315</v>
+        <v>684.1393418771322</v>
       </c>
       <c r="M14" t="n">
-        <v>982.2137160547597</v>
+        <v>982.2137160547607</v>
       </c>
       <c r="N14" t="n">
-        <v>1285.860989095306</v>
+        <v>1285.860989095307</v>
       </c>
       <c r="O14" t="n">
         <v>1570.419518651853</v>
       </c>
       <c r="P14" t="n">
-        <v>1807.677227494527</v>
+        <v>1807.677227494528</v>
       </c>
       <c r="Q14" t="n">
-        <v>1978.019814673689</v>
+        <v>1978.01981467369</v>
       </c>
       <c r="R14" t="n">
-        <v>2063.227822142054</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S14" t="n">
-        <v>2063.227822142054</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T14" t="n">
-        <v>2063.227822142054</v>
+        <v>1790.834445536741</v>
       </c>
       <c r="U14" t="n">
-        <v>1805.028699930742</v>
+        <v>1532.635323325428</v>
       </c>
       <c r="V14" t="n">
-        <v>1447.539285056991</v>
+        <v>1269.224269266277</v>
       </c>
       <c r="W14" t="n">
-        <v>1051.147935357338</v>
+        <v>872.832919566624</v>
       </c>
       <c r="X14" t="n">
-        <v>887.0898605865136</v>
+        <v>461.1129207343712</v>
       </c>
       <c r="Y14" t="n">
-        <v>887.0898605865136</v>
+        <v>461.1129207343712</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>177.5897615913963</v>
       </c>
       <c r="G15" t="n">
-        <v>84.57790851299583</v>
+        <v>84.57790851299586</v>
       </c>
       <c r="H15" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I15" t="n">
-        <v>60.41309749025405</v>
+        <v>60.41309749025406</v>
       </c>
       <c r="J15" t="n">
-        <v>136.4876372116241</v>
+        <v>428.5901296812153</v>
       </c>
       <c r="K15" t="n">
-        <v>279.2113015876566</v>
+        <v>571.3137940572478</v>
       </c>
       <c r="L15" t="n">
-        <v>478.6482944730968</v>
+        <v>770.750786942688</v>
       </c>
       <c r="M15" t="n">
-        <v>714.5273494131623</v>
+        <v>1006.629841882753</v>
       </c>
       <c r="N15" t="n">
-        <v>1225.176235393321</v>
+        <v>1251.093318325858</v>
       </c>
       <c r="O15" t="n">
-        <v>1445.201839802204</v>
+        <v>1471.118922734742</v>
       </c>
       <c r="P15" t="n">
-        <v>1667.425565111552</v>
+        <v>1644.567244808273</v>
       </c>
       <c r="Q15" t="n">
-        <v>1775.259305635551</v>
+        <v>1752.400985332272</v>
       </c>
       <c r="R15" t="n">
         <v>1815.226133375711</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.4823538540204</v>
+        <v>320.0849920695472</v>
       </c>
       <c r="C16" t="n">
-        <v>378.5097907329364</v>
+        <v>320.0849920695472</v>
       </c>
       <c r="D16" t="n">
-        <v>378.5097907329364</v>
+        <v>320.0849920695472</v>
       </c>
       <c r="E16" t="n">
-        <v>378.5097907329364</v>
+        <v>153.8767862224008</v>
       </c>
       <c r="F16" t="n">
-        <v>206.6480165074968</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="G16" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H16" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I16" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="J16" t="n">
-        <v>159.284049374258</v>
+        <v>81.3623327260371</v>
       </c>
       <c r="K16" t="n">
-        <v>237.995409597585</v>
+        <v>355.7604625148998</v>
       </c>
       <c r="L16" t="n">
-        <v>719.9674370283708</v>
+        <v>837.7324899456856</v>
       </c>
       <c r="M16" t="n">
-        <v>1230.616323008529</v>
+        <v>949.5845717216326</v>
       </c>
       <c r="N16" t="n">
-        <v>1341.085660241256</v>
+        <v>1458.08683179624</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.523420510123</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P16" t="n">
-        <v>2015.912244298021</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q16" t="n">
-        <v>2063.227822142054</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="R16" t="n">
-        <v>2063.227822142054</v>
+        <v>2055.465378692325</v>
       </c>
       <c r="S16" t="n">
-        <v>1908.315665406752</v>
+        <v>2055.465378692325</v>
       </c>
       <c r="T16" t="n">
-        <v>1668.708586099222</v>
+        <v>1815.858299384795</v>
       </c>
       <c r="U16" t="n">
-        <v>1388.571783579951</v>
+        <v>1535.721496865524</v>
       </c>
       <c r="V16" t="n">
-        <v>1388.571783579951</v>
+        <v>1254.010029473553</v>
       </c>
       <c r="W16" t="n">
-        <v>1113.719379752464</v>
+        <v>979.1576256460658</v>
       </c>
       <c r="X16" t="n">
-        <v>871.1554831982691</v>
+        <v>736.5937290918708</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.8127148880111</v>
+        <v>510.2509607816129</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1592.627609402678</v>
+        <v>477.7786944448683</v>
       </c>
       <c r="C17" t="n">
-        <v>1165.726879415978</v>
+        <v>477.7786944448683</v>
       </c>
       <c r="D17" t="n">
-        <v>1165.726879415978</v>
+        <v>477.7786944448683</v>
       </c>
       <c r="E17" t="n">
-        <v>739.7499395638353</v>
+        <v>51.80175459272584</v>
       </c>
       <c r="F17" t="n">
-        <v>314.6257577532355</v>
+        <v>51.80175459272584</v>
       </c>
       <c r="G17" t="n">
-        <v>314.6257577532355</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H17" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I17" t="n">
-        <v>80.64296560125337</v>
+        <v>80.64296560125354</v>
       </c>
       <c r="J17" t="n">
-        <v>213.5062128414249</v>
+        <v>213.5062128414254</v>
       </c>
       <c r="K17" t="n">
-        <v>420.8787884255854</v>
+        <v>420.8787884255858</v>
       </c>
       <c r="L17" t="n">
-        <v>684.1393418771315</v>
+        <v>684.1393418771322</v>
       </c>
       <c r="M17" t="n">
-        <v>982.21371605476</v>
+        <v>982.2137160547607</v>
       </c>
       <c r="N17" t="n">
         <v>1285.860989095307</v>
@@ -5536,31 +5536,31 @@
         <v>1807.677227494527</v>
       </c>
       <c r="Q17" t="n">
-        <v>1978.019814673689</v>
+        <v>1978.01981467369</v>
       </c>
       <c r="R17" t="n">
-        <v>2063.227822142054</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S17" t="n">
-        <v>2063.227822142054</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="T17" t="n">
-        <v>1850.82673161399</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="U17" t="n">
-        <v>1592.627609402678</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="V17" t="n">
-        <v>1592.627609402678</v>
+        <v>1705.738407268304</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.627609402678</v>
+        <v>1309.347057568651</v>
       </c>
       <c r="X17" t="n">
-        <v>1592.627609402678</v>
+        <v>897.6270587363983</v>
       </c>
       <c r="Y17" t="n">
-        <v>1592.627609402678</v>
+        <v>897.6270587363983</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>177.5897615913963</v>
       </c>
       <c r="G18" t="n">
-        <v>84.57790851299583</v>
+        <v>84.57790851299586</v>
       </c>
       <c r="H18" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I18" t="n">
-        <v>83.87040333466588</v>
+        <v>60.41309749025406</v>
       </c>
       <c r="J18" t="n">
-        <v>159.944943056036</v>
+        <v>345.9929496995879</v>
       </c>
       <c r="K18" t="n">
-        <v>302.6686074320685</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L18" t="n">
-        <v>502.1056003175087</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M18" t="n">
-        <v>737.9846552575741</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N18" t="n">
-        <v>982.4481317006785</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O18" t="n">
-        <v>1202.473736109562</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P18" t="n">
-        <v>1375.922058183094</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R18" t="n">
         <v>1815.226133375711</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>751.4670772369556</v>
+        <v>213.2371195639251</v>
       </c>
       <c r="C19" t="n">
-        <v>579.4945141158715</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="D19" t="n">
-        <v>416.1777412426422</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="E19" t="n">
-        <v>416.1777412426422</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="F19" t="n">
-        <v>416.1777412426422</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="G19" t="n">
-        <v>250.7942811779865</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H19" t="n">
-        <v>114.7643074953016</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I19" t="n">
-        <v>41.26455644284108</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="J19" t="n">
-        <v>159.284049374258</v>
+        <v>81.3623327260371</v>
       </c>
       <c r="K19" t="n">
-        <v>485.278018711607</v>
+        <v>160.0736929493641</v>
       </c>
       <c r="L19" t="n">
-        <v>665.2645126667776</v>
+        <v>524.2124040100463</v>
       </c>
       <c r="M19" t="n">
-        <v>1175.913398646936</v>
+        <v>1034.861289990205</v>
       </c>
       <c r="N19" t="n">
-        <v>1684.415658721543</v>
+        <v>1145.330627222932</v>
       </c>
       <c r="O19" t="n">
-        <v>1783.151094687207</v>
+        <v>1621.768387491799</v>
       </c>
       <c r="P19" t="n">
-        <v>1864.538746920122</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q19" t="n">
-        <v>2063.227822142054</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="R19" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S19" t="n">
-        <v>1978.793228157504</v>
+        <v>1908.315665406753</v>
       </c>
       <c r="T19" t="n">
-        <v>1739.186148849974</v>
+        <v>1668.708586099223</v>
       </c>
       <c r="U19" t="n">
-        <v>1459.049346330703</v>
+        <v>1388.571783579951</v>
       </c>
       <c r="V19" t="n">
-        <v>1459.049346330703</v>
+        <v>1106.86031618798</v>
       </c>
       <c r="W19" t="n">
-        <v>1184.196942503216</v>
+        <v>832.0079123604933</v>
       </c>
       <c r="X19" t="n">
-        <v>941.6330459490212</v>
+        <v>589.4440158062984</v>
       </c>
       <c r="Y19" t="n">
-        <v>941.6330459490212</v>
+        <v>363.1012474960404</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1295.681190747253</v>
+        <v>443.6562789499538</v>
       </c>
       <c r="C20" t="n">
-        <v>868.7804607605535</v>
+        <v>443.6562789499538</v>
       </c>
       <c r="D20" t="n">
-        <v>868.7804607605535</v>
+        <v>443.6562789499538</v>
       </c>
       <c r="E20" t="n">
-        <v>868.7804607605535</v>
+        <v>443.6562789499538</v>
       </c>
       <c r="F20" t="n">
         <v>443.6562789499538</v>
@@ -5752,16 +5752,16 @@
         <v>80.64296560125337</v>
       </c>
       <c r="J20" t="n">
-        <v>213.5062128414249</v>
+        <v>213.5062128414247</v>
       </c>
       <c r="K20" t="n">
-        <v>420.8787884255854</v>
+        <v>420.8787884255852</v>
       </c>
       <c r="L20" t="n">
-        <v>684.1393418771318</v>
+        <v>684.1393418771315</v>
       </c>
       <c r="M20" t="n">
-        <v>982.2137160547602</v>
+        <v>982.21371605476</v>
       </c>
       <c r="N20" t="n">
         <v>1285.860989095307</v>
@@ -5773,7 +5773,7 @@
         <v>1807.677227494527</v>
       </c>
       <c r="Q20" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673689</v>
       </c>
       <c r="R20" t="n">
         <v>2063.227822142054</v>
@@ -5791,13 +5791,13 @@
         <v>2063.227822142054</v>
       </c>
       <c r="W20" t="n">
-        <v>1707.401189579506</v>
+        <v>1680.561912118846</v>
       </c>
       <c r="X20" t="n">
-        <v>1295.681190747253</v>
+        <v>1268.841913286593</v>
       </c>
       <c r="Y20" t="n">
-        <v>1295.681190747253</v>
+        <v>863.5046432414838</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>60.41309749025405</v>
       </c>
       <c r="J21" t="n">
-        <v>136.4876372116241</v>
+        <v>428.5901296812152</v>
       </c>
       <c r="K21" t="n">
-        <v>594.1721143605263</v>
+        <v>571.3137940572477</v>
       </c>
       <c r="L21" t="n">
-        <v>793.6091072459665</v>
+        <v>770.7507869426879</v>
       </c>
       <c r="M21" t="n">
-        <v>1029.488162186032</v>
+        <v>1006.629841882753</v>
       </c>
       <c r="N21" t="n">
-        <v>1273.951638629136</v>
+        <v>1251.093318325858</v>
       </c>
       <c r="O21" t="n">
-        <v>1493.97724303802</v>
+        <v>1471.118922734742</v>
       </c>
       <c r="P21" t="n">
-        <v>1667.425565111552</v>
+        <v>1644.567244808273</v>
       </c>
       <c r="Q21" t="n">
-        <v>1775.259305635551</v>
+        <v>1752.400985332272</v>
       </c>
       <c r="R21" t="n">
         <v>1815.226133375711</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>850.6538461924254</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="C22" t="n">
-        <v>678.6812830713413</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="D22" t="n">
-        <v>515.364510198112</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="E22" t="n">
-        <v>349.1563043509656</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="F22" t="n">
-        <v>177.294530125526</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="G22" t="n">
-        <v>177.294530125526</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="H22" t="n">
-        <v>41.26455644284108</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="I22" t="n">
         <v>41.26455644284108</v>
@@ -5913,19 +5913,19 @@
         <v>159.284049374258</v>
       </c>
       <c r="K22" t="n">
-        <v>485.278018711607</v>
+        <v>237.995409597585</v>
       </c>
       <c r="L22" t="n">
-        <v>590.861152551228</v>
+        <v>719.9674370283708</v>
       </c>
       <c r="M22" t="n">
-        <v>1101.510038531386</v>
+        <v>831.8195188043178</v>
       </c>
       <c r="N22" t="n">
-        <v>1211.979375764113</v>
+        <v>1340.321778878925</v>
       </c>
       <c r="O22" t="n">
-        <v>1621.768387491798</v>
+        <v>1816.759539147792</v>
       </c>
       <c r="P22" t="n">
         <v>2015.912244298021</v>
@@ -5940,22 +5940,22 @@
         <v>1900.553221957023</v>
       </c>
       <c r="T22" t="n">
-        <v>1900.553221957023</v>
+        <v>1746.567588493235</v>
       </c>
       <c r="U22" t="n">
-        <v>1823.726454434207</v>
+        <v>1466.430785973963</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.014987042236</v>
+        <v>1184.719318581992</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.162583214749</v>
+        <v>909.866914754505</v>
       </c>
       <c r="X22" t="n">
-        <v>1267.162583214749</v>
+        <v>667.3030182003101</v>
       </c>
       <c r="Y22" t="n">
-        <v>1040.819814904491</v>
+        <v>440.9602498900522</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1761.091126046637</v>
+        <v>2464.140491597111</v>
       </c>
       <c r="C23" t="n">
-        <v>1334.190396059937</v>
+        <v>2037.239761610411</v>
       </c>
       <c r="D23" t="n">
-        <v>910.8977752449373</v>
+        <v>1613.947140795411</v>
       </c>
       <c r="E23" t="n">
-        <v>484.9208353927949</v>
+        <v>1187.970200943269</v>
       </c>
       <c r="F23" t="n">
-        <v>484.9208353927949</v>
+        <v>762.8460191326687</v>
       </c>
       <c r="G23" t="n">
-        <v>82.5291128856822</v>
+        <v>360.454296625556</v>
       </c>
       <c r="H23" t="n">
         <v>82.5291128856822</v>
@@ -5992,16 +5992,16 @@
         <v>646.4999879918921</v>
       </c>
       <c r="K23" t="n">
-        <v>853.8725635760526</v>
+        <v>1094.540157577097</v>
       </c>
       <c r="L23" t="n">
-        <v>1117.133117027599</v>
+        <v>1357.800711028643</v>
       </c>
       <c r="M23" t="n">
-        <v>1415.207491205227</v>
+        <v>1655.875085206272</v>
       </c>
       <c r="N23" t="n">
-        <v>1718.854764245774</v>
+        <v>1959.522358246819</v>
       </c>
       <c r="O23" t="n">
         <v>2244.080887803364</v>
@@ -6016,25 +6016,25 @@
         <v>4126.455644284109</v>
       </c>
       <c r="S23" t="n">
-        <v>4066.463358206859</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="T23" t="n">
-        <v>3854.062267678795</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="U23" t="n">
-        <v>3595.863145467482</v>
+        <v>3868.256522072797</v>
       </c>
       <c r="V23" t="n">
-        <v>3238.373730593732</v>
+        <v>3510.767107199046</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.982380894079</v>
+        <v>3114.375757499393</v>
       </c>
       <c r="X23" t="n">
-        <v>2586.276760383277</v>
+        <v>2702.655758667141</v>
       </c>
       <c r="Y23" t="n">
-        <v>2180.939490338167</v>
+        <v>2464.140491597111</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>101.6776539330952</v>
       </c>
       <c r="J24" t="n">
-        <v>177.7521936544652</v>
+        <v>387.2575061424292</v>
       </c>
       <c r="K24" t="n">
-        <v>320.4758580304978</v>
+        <v>529.9811705184617</v>
       </c>
       <c r="L24" t="n">
-        <v>519.912850915938</v>
+        <v>729.4181634039019</v>
       </c>
       <c r="M24" t="n">
-        <v>755.7919058560035</v>
+        <v>965.2972183439674</v>
       </c>
       <c r="N24" t="n">
-        <v>1000.255382299108</v>
+        <v>1209.760694787072</v>
       </c>
       <c r="O24" t="n">
-        <v>1220.280986707992</v>
+        <v>1429.786299195956</v>
       </c>
       <c r="P24" t="n">
-        <v>1393.729308781523</v>
+        <v>1603.234621269487</v>
       </c>
       <c r="Q24" t="n">
         <v>1711.068361793486</v>
@@ -6147,13 +6147,13 @@
         <v>82.5291128856822</v>
       </c>
       <c r="J25" t="n">
-        <v>122.6268891688782</v>
+        <v>200.5486058170991</v>
       </c>
       <c r="K25" t="n">
-        <v>443.7240585190079</v>
+        <v>526.5425751544482</v>
       </c>
       <c r="L25" t="n">
-        <v>925.6960859497938</v>
+        <v>1008.514602585234</v>
       </c>
       <c r="M25" t="n">
         <v>1451.083648188563</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1962.566162598937</v>
+        <v>2061.748769089998</v>
       </c>
       <c r="C26" t="n">
-        <v>1612.115579799811</v>
+        <v>1634.848039103298</v>
       </c>
       <c r="D26" t="n">
-        <v>1188.822958984811</v>
+        <v>1211.555418288298</v>
       </c>
       <c r="E26" t="n">
-        <v>762.8460191326687</v>
+        <v>785.5784784361558</v>
       </c>
       <c r="F26" t="n">
-        <v>762.8460191326687</v>
+        <v>360.454296625556</v>
       </c>
       <c r="G26" t="n">
         <v>360.454296625556</v>
@@ -6226,52 +6226,52 @@
         <v>121.9075220440945</v>
       </c>
       <c r="J26" t="n">
-        <v>254.770769284266</v>
+        <v>646.4999879918921</v>
       </c>
       <c r="K26" t="n">
-        <v>1213.058607630787</v>
+        <v>1604.787826338413</v>
       </c>
       <c r="L26" t="n">
-        <v>1476.319161082333</v>
+        <v>2626.08559829873</v>
       </c>
       <c r="M26" t="n">
-        <v>1774.393535259962</v>
+        <v>3045.441538196815</v>
       </c>
       <c r="N26" t="n">
-        <v>2078.040808300509</v>
+        <v>3349.088811237361</v>
       </c>
       <c r="O26" t="n">
-        <v>2362.599337857055</v>
+        <v>3633.647340793907</v>
       </c>
       <c r="P26" t="n">
-        <v>3226.817483996096</v>
+        <v>3870.905049636582</v>
       </c>
       <c r="Q26" t="n">
-        <v>3889.008978537993</v>
+        <v>4041.247636815744</v>
       </c>
       <c r="R26" t="n">
         <v>4126.455644284109</v>
       </c>
       <c r="S26" t="n">
-        <v>4066.463358206859</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="T26" t="n">
-        <v>3854.062267678795</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="U26" t="n">
-        <v>3595.863145467482</v>
+        <v>4052.535166832294</v>
       </c>
       <c r="V26" t="n">
-        <v>3595.863145467482</v>
+        <v>3695.045751958543</v>
       </c>
       <c r="W26" t="n">
-        <v>3199.471795767829</v>
+        <v>3298.65440225889</v>
       </c>
       <c r="X26" t="n">
-        <v>2787.751796935577</v>
+        <v>2886.934403426637</v>
       </c>
       <c r="Y26" t="n">
-        <v>2382.414526890467</v>
+        <v>2481.597133381528</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>101.6776539330952</v>
       </c>
       <c r="J27" t="n">
-        <v>177.7521936544652</v>
+        <v>469.8546861240563</v>
       </c>
       <c r="K27" t="n">
-        <v>320.4758580304978</v>
+        <v>612.5783505000888</v>
       </c>
       <c r="L27" t="n">
-        <v>519.912850915938</v>
+        <v>812.015343385529</v>
       </c>
       <c r="M27" t="n">
-        <v>755.7919058560035</v>
+        <v>1047.894398325594</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.760694787072</v>
+        <v>1292.357874768699</v>
       </c>
       <c r="O27" t="n">
-        <v>1429.786299195956</v>
+        <v>1512.383479177583</v>
       </c>
       <c r="P27" t="n">
-        <v>1603.234621269487</v>
+        <v>1685.831801251114</v>
       </c>
       <c r="Q27" t="n">
-        <v>1711.068361793486</v>
+        <v>1793.665541775113</v>
       </c>
       <c r="R27" t="n">
         <v>1856.490689818552</v>
@@ -6393,7 +6393,7 @@
         <v>1008.514602585234</v>
       </c>
       <c r="M28" t="n">
-        <v>1533.902164824003</v>
+        <v>1451.083648188563</v>
       </c>
       <c r="N28" t="n">
         <v>1959.58590826317</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2040.847870782111</v>
+        <v>2135.669246541814</v>
       </c>
       <c r="C29" t="n">
-        <v>1613.947140795411</v>
+        <v>2037.239761610411</v>
       </c>
       <c r="D29" t="n">
         <v>1613.947140795411</v>
@@ -6469,16 +6469,16 @@
         <v>1213.058607630787</v>
       </c>
       <c r="L29" t="n">
-        <v>2234.356379591104</v>
+        <v>1476.319161082333</v>
       </c>
       <c r="M29" t="n">
-        <v>3045.441538196815</v>
+        <v>1774.393535259962</v>
       </c>
       <c r="N29" t="n">
-        <v>3349.088811237361</v>
+        <v>2078.040808300509</v>
       </c>
       <c r="O29" t="n">
-        <v>3633.647340793907</v>
+        <v>3099.338580260825</v>
       </c>
       <c r="P29" t="n">
         <v>3870.905049636582</v>
@@ -6490,25 +6490,25 @@
         <v>4126.455644284109</v>
       </c>
       <c r="S29" t="n">
-        <v>4066.463358206859</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="T29" t="n">
-        <v>3854.062267678795</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="U29" t="n">
-        <v>3635.242918824754</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="V29" t="n">
-        <v>3277.753503951003</v>
+        <v>3768.966229410359</v>
       </c>
       <c r="W29" t="n">
-        <v>3277.753503951003</v>
+        <v>3372.574879710706</v>
       </c>
       <c r="X29" t="n">
-        <v>2866.033505118751</v>
+        <v>2960.854880878454</v>
       </c>
       <c r="Y29" t="n">
-        <v>2460.696235073641</v>
+        <v>2555.517610833344</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>101.6776539330952</v>
       </c>
       <c r="J30" t="n">
-        <v>469.8546861240563</v>
+        <v>387.2575061424292</v>
       </c>
       <c r="K30" t="n">
-        <v>612.5783505000888</v>
+        <v>529.9811705184617</v>
       </c>
       <c r="L30" t="n">
-        <v>812.015343385529</v>
+        <v>729.4181634039019</v>
       </c>
       <c r="M30" t="n">
-        <v>1047.894398325594</v>
+        <v>965.2972183439674</v>
       </c>
       <c r="N30" t="n">
-        <v>1292.357874768699</v>
+        <v>1209.760694787072</v>
       </c>
       <c r="O30" t="n">
-        <v>1512.383479177583</v>
+        <v>1429.786299195956</v>
       </c>
       <c r="P30" t="n">
-        <v>1685.831801251114</v>
+        <v>1603.234621269487</v>
       </c>
       <c r="Q30" t="n">
-        <v>1793.665541775113</v>
+        <v>1711.068361793486</v>
       </c>
       <c r="R30" t="n">
         <v>1856.490689818552</v>
@@ -6630,7 +6630,7 @@
         <v>1008.514602585234</v>
       </c>
       <c r="M31" t="n">
-        <v>1533.902164824003</v>
+        <v>1451.083648188563</v>
       </c>
       <c r="N31" t="n">
         <v>1959.58590826317</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2010.414017770296</v>
+        <v>2464.140491597111</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.513287783597</v>
+        <v>2037.239761610411</v>
       </c>
       <c r="D32" t="n">
-        <v>1583.513287783597</v>
+        <v>1613.947140795411</v>
       </c>
       <c r="E32" t="n">
         <v>1187.970200943269</v>
@@ -6703,49 +6703,49 @@
         <v>646.4999879918921</v>
       </c>
       <c r="K32" t="n">
-        <v>853.8725635760526</v>
+        <v>1604.787826338413</v>
       </c>
       <c r="L32" t="n">
-        <v>1366.540355974929</v>
+        <v>1868.048379789959</v>
       </c>
       <c r="M32" t="n">
-        <v>1664.614730152557</v>
+        <v>2166.122753967587</v>
       </c>
       <c r="N32" t="n">
-        <v>1968.262003193104</v>
+        <v>2469.770027008134</v>
       </c>
       <c r="O32" t="n">
-        <v>2989.559775153421</v>
+        <v>2754.32855656468</v>
       </c>
       <c r="P32" t="n">
-        <v>3226.817483996096</v>
+        <v>3737.065152757411</v>
       </c>
       <c r="Q32" t="n">
-        <v>3889.008978537993</v>
+        <v>3907.407739936574</v>
       </c>
       <c r="R32" t="n">
         <v>4126.455644284109</v>
       </c>
       <c r="S32" t="n">
-        <v>4066.463358206859</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="T32" t="n">
-        <v>3854.062267678795</v>
+        <v>4126.455644284109</v>
       </c>
       <c r="U32" t="n">
-        <v>3595.863145467482</v>
+        <v>4043.206890507154</v>
       </c>
       <c r="V32" t="n">
-        <v>3238.373730593732</v>
+        <v>3685.717475633403</v>
       </c>
       <c r="W32" t="n">
-        <v>2841.982380894079</v>
+        <v>3289.32612593375</v>
       </c>
       <c r="X32" t="n">
-        <v>2430.262382061826</v>
+        <v>3289.32612593375</v>
       </c>
       <c r="Y32" t="n">
-        <v>2430.262382061826</v>
+        <v>2883.988855888641</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>101.6776539330952</v>
       </c>
       <c r="J33" t="n">
-        <v>177.7521936544652</v>
+        <v>387.2575061424292</v>
       </c>
       <c r="K33" t="n">
-        <v>320.4758580304978</v>
+        <v>529.9811705184617</v>
       </c>
       <c r="L33" t="n">
-        <v>519.912850915938</v>
+        <v>729.4181634039019</v>
       </c>
       <c r="M33" t="n">
-        <v>755.7919058560035</v>
+        <v>965.2972183439674</v>
       </c>
       <c r="N33" t="n">
-        <v>1000.255382299108</v>
+        <v>1209.760694787072</v>
       </c>
       <c r="O33" t="n">
-        <v>1220.280986707992</v>
+        <v>1429.786299195956</v>
       </c>
       <c r="P33" t="n">
-        <v>1393.729308781523</v>
+        <v>1603.234621269487</v>
       </c>
       <c r="Q33" t="n">
         <v>1711.068361793486</v>
@@ -6858,25 +6858,25 @@
         <v>82.5291128856822</v>
       </c>
       <c r="J34" t="n">
-        <v>122.6268891688782</v>
+        <v>200.5486058170991</v>
       </c>
       <c r="K34" t="n">
-        <v>448.6208585062273</v>
+        <v>526.5425751544482</v>
       </c>
       <c r="L34" t="n">
-        <v>930.5928859370131</v>
+        <v>1008.514602585234</v>
       </c>
       <c r="M34" t="n">
-        <v>1455.980448175782</v>
+        <v>1533.902164824003</v>
       </c>
       <c r="N34" t="n">
-        <v>1964.482708250389</v>
+        <v>2042.40442489861</v>
       </c>
       <c r="O34" t="n">
-        <v>2440.920468519256</v>
+        <v>2518.842185167477</v>
       </c>
       <c r="P34" t="n">
-        <v>2835.064325325479</v>
+        <v>2912.9860419737</v>
       </c>
       <c r="Q34" t="n">
         <v>3028.856600560192</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1175.145908451677</v>
+        <v>1742.559028907283</v>
       </c>
       <c r="C35" t="n">
-        <v>748.245178464977</v>
+        <v>1315.658298920583</v>
       </c>
       <c r="D35" t="n">
-        <v>748.245178464977</v>
+        <v>892.3656781055834</v>
       </c>
       <c r="E35" t="n">
-        <v>748.245178464977</v>
+        <v>466.3887382534409</v>
       </c>
       <c r="F35" t="n">
-        <v>443.6562789499538</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="G35" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="H35" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="I35" t="n">
         <v>80.64296560125337</v>
@@ -6961,28 +6961,28 @@
         <v>1978.01981467369</v>
       </c>
       <c r="R35" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="S35" t="n">
-        <v>2003.235536064804</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="T35" t="n">
-        <v>1790.83444553674</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="U35" t="n">
-        <v>1532.635323325427</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="V35" t="n">
-        <v>1175.145908451677</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="W35" t="n">
-        <v>1175.145908451677</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="X35" t="n">
-        <v>1175.145908451677</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="Y35" t="n">
-        <v>1175.145908451677</v>
+        <v>1742.559028907283</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>845.2850763691091</v>
+        <v>597.2833876027652</v>
       </c>
       <c r="C36" t="n">
-        <v>727.7791728866139</v>
+        <v>479.7774841202699</v>
       </c>
       <c r="D36" t="n">
-        <v>623.9392144018989</v>
+        <v>375.9375256355549</v>
       </c>
       <c r="E36" t="n">
-        <v>519.2372806748361</v>
+        <v>271.2355919084922</v>
       </c>
       <c r="F36" t="n">
-        <v>425.5914503577403</v>
+        <v>177.5897615913963</v>
       </c>
       <c r="G36" t="n">
-        <v>332.5795972793399</v>
+        <v>84.57790851299583</v>
       </c>
       <c r="H36" t="n">
-        <v>289.2662452091851</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="I36" t="n">
-        <v>308.4147862565981</v>
+        <v>60.41309749025405</v>
       </c>
       <c r="J36" t="n">
-        <v>593.9946384659321</v>
+        <v>345.9929496995879</v>
       </c>
       <c r="K36" t="n">
-        <v>736.7183028419646</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L36" t="n">
-        <v>936.1552957274048</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M36" t="n">
-        <v>1172.03435066747</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N36" t="n">
-        <v>1416.497827110575</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O36" t="n">
-        <v>1636.523431519458</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P36" t="n">
-        <v>1809.97175359299</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q36" t="n">
-        <v>1917.805494116989</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R36" t="n">
-        <v>2063.227822142055</v>
+        <v>1815.226133375711</v>
       </c>
       <c r="S36" t="n">
-        <v>2001.256757648138</v>
+        <v>1753.255068881794</v>
       </c>
       <c r="T36" t="n">
-        <v>1863.576485493939</v>
+        <v>1615.574796727595</v>
       </c>
       <c r="U36" t="n">
-        <v>1678.876836696733</v>
+        <v>1430.875147930389</v>
       </c>
       <c r="V36" t="n">
-        <v>1473.903697835999</v>
+        <v>1225.902009069655</v>
       </c>
       <c r="W36" t="n">
-        <v>1277.382320669217</v>
+        <v>1029.380631902873</v>
       </c>
       <c r="X36" t="n">
-        <v>1113.904974435879</v>
+        <v>865.9032856695355</v>
       </c>
       <c r="Y36" t="n">
-        <v>974.2120857891719</v>
+        <v>726.2103970228279</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>953.5070836268568</v>
+        <v>452.009541785397</v>
       </c>
       <c r="C37" t="n">
-        <v>781.5345205057728</v>
+        <v>452.009541785397</v>
       </c>
       <c r="D37" t="n">
-        <v>618.2177476325435</v>
+        <v>452.009541785397</v>
       </c>
       <c r="E37" t="n">
         <v>452.009541785397</v>
@@ -7086,61 +7086,61 @@
         <v>280.1477675599574</v>
       </c>
       <c r="G37" t="n">
-        <v>114.7643074953017</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="H37" t="n">
-        <v>114.7643074953017</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="I37" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="J37" t="n">
-        <v>81.3623327260371</v>
+        <v>81.36233272603708</v>
       </c>
       <c r="K37" t="n">
-        <v>407.3563020633862</v>
+        <v>160.0736929493641</v>
       </c>
       <c r="L37" t="n">
-        <v>889.3283294941721</v>
+        <v>438.9356857414733</v>
       </c>
       <c r="M37" t="n">
-        <v>1001.180411270119</v>
+        <v>949.5845717216317</v>
       </c>
       <c r="N37" t="n">
-        <v>1145.330627222932</v>
+        <v>1458.086831796239</v>
       </c>
       <c r="O37" t="n">
-        <v>1621.768387491799</v>
+        <v>1934.524592065106</v>
       </c>
       <c r="P37" t="n">
-        <v>2015.912244298022</v>
+        <v>2015.912244298021</v>
       </c>
       <c r="Q37" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="R37" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="S37" t="n">
-        <v>1900.553221957023</v>
+        <v>1997.223959696109</v>
       </c>
       <c r="T37" t="n">
-        <v>1900.553221957023</v>
+        <v>1757.616880388579</v>
       </c>
       <c r="U37" t="n">
-        <v>1704.125215883281</v>
+        <v>1477.480077869308</v>
       </c>
       <c r="V37" t="n">
-        <v>1422.41374849131</v>
+        <v>1195.768610477337</v>
       </c>
       <c r="W37" t="n">
-        <v>1422.41374849131</v>
+        <v>920.9162066498499</v>
       </c>
       <c r="X37" t="n">
-        <v>1179.849851937115</v>
+        <v>678.352310095655</v>
       </c>
       <c r="Y37" t="n">
-        <v>953.5070836268568</v>
+        <v>452.009541785397</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1593.583482660457</v>
+        <v>1651.507823309802</v>
       </c>
       <c r="C38" t="n">
-        <v>1593.583482660457</v>
+        <v>1224.607093323102</v>
       </c>
       <c r="D38" t="n">
-        <v>1170.290861845457</v>
+        <v>892.3656781055834</v>
       </c>
       <c r="E38" t="n">
-        <v>744.3139219933147</v>
+        <v>466.3887382534409</v>
       </c>
       <c r="F38" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="G38" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="H38" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="I38" t="n">
-        <v>80.64296560125331</v>
+        <v>80.64296560125337</v>
       </c>
       <c r="J38" t="n">
-        <v>213.5062128414252</v>
+        <v>213.5062128414247</v>
       </c>
       <c r="K38" t="n">
-        <v>420.8787884255856</v>
+        <v>420.8787884255852</v>
       </c>
       <c r="L38" t="n">
-        <v>684.139341877132</v>
+        <v>684.1393418771315</v>
       </c>
       <c r="M38" t="n">
-        <v>982.2137160547604</v>
+        <v>982.21371605476</v>
       </c>
       <c r="N38" t="n">
         <v>1285.860989095307</v>
@@ -7195,31 +7195,31 @@
         <v>1807.677227494527</v>
       </c>
       <c r="Q38" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673689</v>
       </c>
       <c r="R38" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="S38" t="n">
-        <v>2003.235536064804</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="T38" t="n">
-        <v>1790.83444553674</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="U38" t="n">
-        <v>1790.83444553674</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="V38" t="n">
-        <v>1790.83444553674</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="W38" t="n">
-        <v>1593.583482660457</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="X38" t="n">
-        <v>1593.583482660457</v>
+        <v>1651.507823309802</v>
       </c>
       <c r="Y38" t="n">
-        <v>1593.583482660457</v>
+        <v>1651.507823309802</v>
       </c>
     </row>
     <row r="39">
@@ -7244,13 +7244,13 @@
         <v>177.5897615913963</v>
       </c>
       <c r="G39" t="n">
-        <v>84.57790851299586</v>
+        <v>84.57790851299583</v>
       </c>
       <c r="H39" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="I39" t="n">
-        <v>60.41309749025406</v>
+        <v>60.41309749025405</v>
       </c>
       <c r="J39" t="n">
         <v>345.9929496995879</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>880.0073325743962</v>
+        <v>327.8474355192761</v>
       </c>
       <c r="C40" t="n">
-        <v>708.0347694533122</v>
+        <v>155.8748723981921</v>
       </c>
       <c r="D40" t="n">
-        <v>544.7179965800829</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="E40" t="n">
-        <v>378.5097907329364</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="F40" t="n">
-        <v>206.6480165074968</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="G40" t="n">
-        <v>41.2645564428411</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="H40" t="n">
-        <v>41.2645564428411</v>
+        <v>114.7643074953016</v>
       </c>
       <c r="I40" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="J40" t="n">
-        <v>159.284049374258</v>
+        <v>81.36233272603708</v>
       </c>
       <c r="K40" t="n">
-        <v>237.995409597585</v>
+        <v>160.0736929493641</v>
       </c>
       <c r="L40" t="n">
-        <v>719.9674370283708</v>
+        <v>503.8818054713689</v>
       </c>
       <c r="M40" t="n">
-        <v>831.8195188043178</v>
+        <v>1014.530691451527</v>
       </c>
       <c r="N40" t="n">
-        <v>1306.71333441834</v>
+        <v>1523.032951526134</v>
       </c>
       <c r="O40" t="n">
-        <v>1783.151094687207</v>
+        <v>1621.768387491798</v>
       </c>
       <c r="P40" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298021</v>
       </c>
       <c r="Q40" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="R40" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="S40" t="n">
-        <v>1908.315665406753</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="T40" t="n">
-        <v>1668.708586099223</v>
+        <v>1823.620742834524</v>
       </c>
       <c r="U40" t="n">
-        <v>1388.571783579951</v>
+        <v>1543.483940315253</v>
       </c>
       <c r="V40" t="n">
-        <v>1388.571783579951</v>
+        <v>1261.772472923282</v>
       </c>
       <c r="W40" t="n">
-        <v>1113.719379752464</v>
+        <v>986.9200690957946</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.719379752464</v>
+        <v>744.3561725415997</v>
       </c>
       <c r="Y40" t="n">
-        <v>1070.173301286462</v>
+        <v>518.0134042313417</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1013.496666371459</v>
+        <v>892.3656781055834</v>
       </c>
       <c r="C41" t="n">
-        <v>586.5959363847596</v>
+        <v>892.3656781055834</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1897401827149</v>
+        <v>892.3656781055834</v>
       </c>
       <c r="E41" t="n">
-        <v>319.1897401827149</v>
+        <v>466.3887382534409</v>
       </c>
       <c r="F41" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="G41" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="H41" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="I41" t="n">
-        <v>80.64296560125331</v>
+        <v>80.64296560125334</v>
       </c>
       <c r="J41" t="n">
         <v>213.5062128414249</v>
       </c>
       <c r="K41" t="n">
-        <v>420.8787884255854</v>
+        <v>420.8787884255851</v>
       </c>
       <c r="L41" t="n">
-        <v>684.1393418771318</v>
+        <v>684.1393418771315</v>
       </c>
       <c r="M41" t="n">
-        <v>982.2137160547604</v>
+        <v>982.2137160547597</v>
       </c>
       <c r="N41" t="n">
-        <v>1285.860989095307</v>
+        <v>1285.860989095306</v>
       </c>
       <c r="O41" t="n">
         <v>1570.419518651853</v>
@@ -7432,10 +7432,10 @@
         <v>1807.677227494527</v>
       </c>
       <c r="Q41" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673689</v>
       </c>
       <c r="R41" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="S41" t="n">
         <v>2003.235536064804</v>
@@ -7444,19 +7444,19 @@
         <v>1790.83444553674</v>
       </c>
       <c r="U41" t="n">
-        <v>1790.83444553674</v>
+        <v>1532.635323325427</v>
       </c>
       <c r="V41" t="n">
-        <v>1433.34503066299</v>
+        <v>1175.145908451676</v>
       </c>
       <c r="W41" t="n">
-        <v>1433.34503066299</v>
+        <v>892.3656781055834</v>
       </c>
       <c r="X41" t="n">
-        <v>1433.34503066299</v>
+        <v>892.3656781055834</v>
       </c>
       <c r="Y41" t="n">
-        <v>1433.34503066299</v>
+        <v>892.3656781055834</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>177.5897615913963</v>
       </c>
       <c r="G42" t="n">
-        <v>84.57790851299586</v>
+        <v>84.57790851299583</v>
       </c>
       <c r="H42" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="I42" t="n">
-        <v>60.41309749025406</v>
+        <v>60.41309749025405</v>
       </c>
       <c r="J42" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995879</v>
       </c>
       <c r="K42" t="n">
-        <v>594.1721143605263</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L42" t="n">
-        <v>793.6091072459665</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M42" t="n">
-        <v>1029.488162186032</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N42" t="n">
-        <v>1273.951638629136</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O42" t="n">
-        <v>1493.97724303802</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P42" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q42" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R42" t="n">
         <v>1815.226133375711</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.123623562201</v>
+        <v>320.0849920695463</v>
       </c>
       <c r="C43" t="n">
-        <v>616.151060441117</v>
+        <v>148.1124289484623</v>
       </c>
       <c r="D43" t="n">
-        <v>452.8342875678877</v>
+        <v>148.1124289484623</v>
       </c>
       <c r="E43" t="n">
-        <v>286.6260817207412</v>
+        <v>148.1124289484623</v>
       </c>
       <c r="F43" t="n">
-        <v>114.7643074953017</v>
+        <v>148.1124289484623</v>
       </c>
       <c r="G43" t="n">
-        <v>114.7643074953017</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="H43" t="n">
-        <v>114.7643074953017</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="I43" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284108</v>
       </c>
       <c r="J43" t="n">
-        <v>159.284049374258</v>
+        <v>81.36233272603708</v>
       </c>
       <c r="K43" t="n">
-        <v>485.278018711607</v>
+        <v>160.0736929493641</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6357108363588</v>
+        <v>265.656826788985</v>
       </c>
       <c r="M43" t="n">
-        <v>883.4877926123058</v>
+        <v>776.3057127691434</v>
       </c>
       <c r="N43" t="n">
-        <v>993.9571298450328</v>
+        <v>1284.807972843751</v>
       </c>
       <c r="O43" t="n">
-        <v>1470.3948901139</v>
+        <v>1761.245733112617</v>
       </c>
       <c r="P43" t="n">
-        <v>1864.538746920123</v>
+        <v>1864.538746920122</v>
       </c>
       <c r="Q43" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142054</v>
       </c>
       <c r="R43" t="n">
         <v>2055.465378692325</v>
       </c>
       <c r="S43" t="n">
-        <v>1966.940138965521</v>
+        <v>2055.465378692325</v>
       </c>
       <c r="T43" t="n">
-        <v>1727.333059657991</v>
+        <v>1815.858299384794</v>
       </c>
       <c r="U43" t="n">
-        <v>1447.196257138719</v>
+        <v>1535.721496865523</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.196257138719</v>
+        <v>1254.010029473552</v>
       </c>
       <c r="W43" t="n">
-        <v>1447.196257138719</v>
+        <v>979.1576256460648</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.632360584525</v>
+        <v>736.5937290918699</v>
       </c>
       <c r="Y43" t="n">
-        <v>978.2895922742666</v>
+        <v>510.250960781612</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1394.443095837087</v>
+        <v>1583.387171773275</v>
       </c>
       <c r="C44" t="n">
-        <v>1294.757400612696</v>
+        <v>1156.486441786575</v>
       </c>
       <c r="D44" t="n">
-        <v>1294.757400612696</v>
+        <v>733.193820971575</v>
       </c>
       <c r="E44" t="n">
-        <v>868.7804607605536</v>
+        <v>733.193820971575</v>
       </c>
       <c r="F44" t="n">
-        <v>443.6562789499538</v>
+        <v>308.0696391609752</v>
       </c>
       <c r="G44" t="n">
         <v>41.2645564428411</v>
@@ -7678,22 +7678,22 @@
         <v>2003.235536064805</v>
       </c>
       <c r="T44" t="n">
-        <v>1790.834445536741</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U44" t="n">
-        <v>1790.834445536741</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V44" t="n">
-        <v>1790.834445536741</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W44" t="n">
-        <v>1394.443095837087</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="X44" t="n">
-        <v>1394.443095837087</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="Y44" t="n">
-        <v>1394.443095837087</v>
+        <v>2003.235536064805</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>60.41309749025406</v>
       </c>
       <c r="J45" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K45" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L45" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M45" t="n">
-        <v>714.5273494131625</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N45" t="n">
-        <v>958.9908258562668</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O45" t="n">
-        <v>1179.016430265151</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P45" t="n">
-        <v>1352.464752338683</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q45" t="n">
         <v>1669.803805350645</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.3370733191961</v>
+        <v>682.5891357159273</v>
       </c>
       <c r="C46" t="n">
-        <v>515.364510198112</v>
+        <v>510.6165725948433</v>
       </c>
       <c r="D46" t="n">
-        <v>515.364510198112</v>
+        <v>347.299799721614</v>
       </c>
       <c r="E46" t="n">
-        <v>349.1563043509656</v>
+        <v>347.299799721614</v>
       </c>
       <c r="F46" t="n">
-        <v>177.294530125526</v>
+        <v>175.4380254961744</v>
       </c>
       <c r="G46" t="n">
-        <v>177.294530125526</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H46" t="n">
         <v>41.2645564428411</v>
@@ -7806,52 +7806,52 @@
         <v>41.2645564428411</v>
       </c>
       <c r="J46" t="n">
-        <v>159.284049374258</v>
+        <v>81.3623327260371</v>
       </c>
       <c r="K46" t="n">
-        <v>485.278018711607</v>
+        <v>407.3563020633862</v>
       </c>
       <c r="L46" t="n">
-        <v>967.2500461423929</v>
+        <v>889.3283294941721</v>
       </c>
       <c r="M46" t="n">
-        <v>1079.10212791834</v>
+        <v>1327.286896024836</v>
       </c>
       <c r="N46" t="n">
-        <v>1189.571465151067</v>
+        <v>1835.789156099443</v>
       </c>
       <c r="O46" t="n">
-        <v>1470.3948901139</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P46" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q46" t="n">
         <v>2063.227822142055</v>
       </c>
       <c r="R46" t="n">
-        <v>2063.227822142055</v>
+        <v>2055.465378692325</v>
       </c>
       <c r="S46" t="n">
-        <v>1908.315665406753</v>
+        <v>1900.553221957024</v>
       </c>
       <c r="T46" t="n">
-        <v>1668.708586099223</v>
+        <v>1660.946142649494</v>
       </c>
       <c r="U46" t="n">
-        <v>1388.571783579952</v>
+        <v>1380.809340130222</v>
       </c>
       <c r="V46" t="n">
-        <v>1378.698214169007</v>
+        <v>1099.097872738251</v>
       </c>
       <c r="W46" t="n">
-        <v>1103.84581034152</v>
+        <v>1099.097872738251</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.84581034152</v>
+        <v>1099.097872738251</v>
       </c>
       <c r="Y46" t="n">
-        <v>877.5030420312617</v>
+        <v>872.755104427993</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>211.6215277656199</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>314.3554475704226</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.78678755368766</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>250.6916849560563</v>
+        <v>402.8250547517289</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>95.69086732750215</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>268.8741510475294</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>49.26808407658143</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.08921242755417</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>197.6634036015512</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>402.8250547517287</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>118.1830015706896</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>211.62152776562</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>294.4479867964222</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>75.15490920762593</v>
+        <v>261.1672497182437</v>
       </c>
       <c r="M19" t="n">
-        <v>402.8250547517288</v>
+        <v>402.8250547517289</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>318.1422351241107</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.08921242755417</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>402.8250547517287</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>314.1955310727487</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>118.9545989063779</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>243.0985797990348</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>243.0985797990349</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>211.6215277656202</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.6215277656202</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>244.8341506331341</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>334.0575392195774</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>765.6941601098695</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>122.5066320408654</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>633.2933710064308</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>211.6215277656201</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.08921242755417</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,10 +10041,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>334.0575392195774</v>
       </c>
       <c r="N28" t="n">
-        <v>318.3983901075151</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10117,19 +10117,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>765.6941601098695</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>518.1927115435174</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>744.1810529331021</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>539.7058187202849</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>211.6215277656202</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.08921242755417</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,10 +10278,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>334.0575392195774</v>
       </c>
       <c r="N31" t="n">
-        <v>318.3983901075151</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>251.9265039872019</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>744.1810529331021</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>135.1918150294654</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>211.6215277656202</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.6215277656202</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>147.9562599905857</v>
+        <v>69.24745529541322</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>211.6215277656202</v>
+        <v>211.62152776562</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>175.029150457059</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>402.8250547517288</v>
       </c>
       <c r="N37" t="n">
-        <v>34.02108961624826</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>240.6312915983677</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>402.8250547517288</v>
       </c>
       <c r="N40" t="n">
-        <v>368.1055337184804</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>211.62152776562</v>
       </c>
       <c r="K42" t="n">
-        <v>318.1422351241107</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>182.6005639243747</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>402.8250547517287</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>22.12662785312055</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>211.6215277656199</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.6215277656197</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>329.4004896512288</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>183.9272616133026</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>78.59873269835492</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>275.145931902475</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.2770796227834</v>
@@ -23317,7 +23317,7 @@
         <v>255.6171309891995</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>48.58200462820514</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>40.64557746634927</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H13" t="n">
         <v>134.669673945858</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>132.858614407236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>93.13757720645378</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>245.1853048208141</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.8772516012942</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>58.65704900142109</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H16" t="n">
         <v>134.669673945858</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3678052820416</v>
+        <v>387.9359791136557</v>
       </c>
       <c r="H17" t="n">
-        <v>4.518342605184557</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>59.3923632164781</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>39.89882237215085</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S19" t="n">
-        <v>77.45760613847678</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,7 +23980,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>40.15906996573386</v>
+        <v>13.58818527968049</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.7296254640092</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.2110085144546</v>
+        <v>84.76523138530433</v>
       </c>
       <c r="U22" t="n">
-        <v>201.2769346464913</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>154.4542345382358</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>165.1537829453289</v>
       </c>
     </row>
     <row r="24">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>75.68564571569783</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>182.4358583119019</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>325.1865326047441</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U29" t="n">
-        <v>38.98597562369935</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24922,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>30.12951448169633</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>173.2008647500133</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>119.3299294726208</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H35" t="n">
         <v>275.145931902475</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>83.82179204223496</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>88.01921134646324</v>
       </c>
       <c r="T37" t="n">
-        <v>237.2110085144546</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.87170848107374</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>90.14069354150655</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>398.3678052820416</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U38" t="n">
         <v>255.6171309891995</v>
@@ -25453,10 +25453,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>197.1489829551362</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.9841458906355</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H40" t="n">
         <v>134.669673945858</v>
       </c>
       <c r="I40" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>7.684819015232499</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.9687229458127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>154.3275603668254</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3678052820416</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>112.4750081600245</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7296254640092</v>
+        <v>57.95023168344413</v>
       </c>
       <c r="H43" t="n">
         <v>134.669673945858</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.72304783841257</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>323.9428844146854</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>134.2307733910889</v>
       </c>
       <c r="H44" t="n">
         <v>275.145931902475</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U44" t="n">
         <v>255.6171309891995</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7296254640092</v>
+        <v>30.89789110120915</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I46" t="n">
         <v>72.76475354193595</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>269.1195190012156</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>287528.2029027438</v>
+        <v>287528.2029027437</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>545069.350842001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>545069.350842001</v>
+      </c>
+      <c r="D2" t="n">
         <v>545069.3508420009</v>
       </c>
-      <c r="C2" t="n">
-        <v>545069.3508420009</v>
-      </c>
-      <c r="D2" t="n">
-        <v>545069.350842001</v>
-      </c>
       <c r="E2" t="n">
-        <v>316771.1555530465</v>
+        <v>316771.1555530469</v>
       </c>
       <c r="F2" t="n">
         <v>316771.1555530468</v>
@@ -26334,28 +26334,28 @@
         <v>316771.1555530467</v>
       </c>
       <c r="I2" t="n">
-        <v>489007.7583021263</v>
+        <v>489007.7583021261</v>
       </c>
       <c r="J2" t="n">
         <v>489007.7583021257</v>
       </c>
       <c r="K2" t="n">
-        <v>489007.7583021257</v>
+        <v>489007.7583021261</v>
       </c>
       <c r="L2" t="n">
-        <v>489007.7583021261</v>
+        <v>489007.7583021262</v>
       </c>
       <c r="M2" t="n">
-        <v>316771.1555530468</v>
+        <v>316771.1555530467</v>
       </c>
       <c r="N2" t="n">
-        <v>316771.1555530467</v>
+        <v>316771.1555530466</v>
       </c>
       <c r="O2" t="n">
         <v>316771.1555530467</v>
       </c>
       <c r="P2" t="n">
-        <v>316771.1555530467</v>
+        <v>316771.1555530468</v>
       </c>
     </row>
     <row r="3">
@@ -26426,16 +26426,16 @@
         <v>322739.0782821833</v>
       </c>
       <c r="E4" t="n">
-        <v>21204.8961482305</v>
+        <v>21204.89614823051</v>
       </c>
       <c r="F4" t="n">
-        <v>21204.89614823051</v>
+        <v>21204.89614823052</v>
       </c>
       <c r="G4" t="n">
         <v>21204.89614823051</v>
       </c>
       <c r="H4" t="n">
-        <v>21204.8961482305</v>
+        <v>21204.89614823051</v>
       </c>
       <c r="I4" t="n">
         <v>104724.650997316</v>
@@ -26453,7 +26453,7 @@
         <v>21204.89614823051</v>
       </c>
       <c r="N4" t="n">
-        <v>21204.89614823051</v>
+        <v>21204.8961482305</v>
       </c>
       <c r="O4" t="n">
         <v>21204.89614823051</v>
@@ -26481,7 +26481,7 @@
         <v>41815.40098331763</v>
       </c>
       <c r="F5" t="n">
-        <v>41815.40098331762</v>
+        <v>41815.40098331763</v>
       </c>
       <c r="G5" t="n">
         <v>41815.40098331762</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188702.6725598177</v>
+        <v>188680.9589183214</v>
       </c>
       <c r="C6" t="n">
-        <v>188702.6725598177</v>
+        <v>188680.9589183214</v>
       </c>
       <c r="D6" t="n">
-        <v>188702.6725598178</v>
+        <v>188680.9589183213</v>
       </c>
       <c r="E6" t="n">
-        <v>-285535.1168913181</v>
+        <v>-286157.6152572586</v>
       </c>
       <c r="F6" t="n">
-        <v>253750.8584214987</v>
+        <v>253128.3600555577</v>
       </c>
       <c r="G6" t="n">
-        <v>253750.8584214986</v>
+        <v>253128.3600555576</v>
       </c>
       <c r="H6" t="n">
-        <v>253750.8584214986</v>
+        <v>253128.3600555577</v>
       </c>
       <c r="I6" t="n">
-        <v>173942.7420019741</v>
+        <v>173773.4978537937</v>
       </c>
       <c r="J6" t="n">
-        <v>311106.6434249328</v>
+        <v>310937.3992767527</v>
       </c>
       <c r="K6" t="n">
-        <v>311106.6434249328</v>
+        <v>310937.3992767531</v>
       </c>
       <c r="L6" t="n">
-        <v>311106.6434249333</v>
+        <v>310937.3992767531</v>
       </c>
       <c r="M6" t="n">
-        <v>253750.8584214987</v>
+        <v>253128.3600555576</v>
       </c>
       <c r="N6" t="n">
-        <v>253750.8584214986</v>
+        <v>253128.3600555575</v>
       </c>
       <c r="O6" t="n">
-        <v>253750.8584214986</v>
+        <v>253128.3600555576</v>
       </c>
       <c r="P6" t="n">
-        <v>253750.8584214986</v>
+        <v>253128.3600555577</v>
       </c>
     </row>
   </sheetData>
@@ -26801,10 +26801,10 @@
         <v>515.8069555355138</v>
       </c>
       <c r="F4" t="n">
-        <v>515.8069555355136</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="G4" t="n">
-        <v>515.8069555355136</v>
+        <v>515.8069555355137</v>
       </c>
       <c r="H4" t="n">
         <v>515.8069555355136</v>
@@ -26822,13 +26822,13 @@
         <v>1031.613911071027</v>
       </c>
       <c r="M4" t="n">
-        <v>515.8069555355137</v>
+        <v>515.8069555355136</v>
       </c>
       <c r="N4" t="n">
-        <v>515.8069555355137</v>
+        <v>515.8069555355136</v>
       </c>
       <c r="O4" t="n">
-        <v>515.8069555355137</v>
+        <v>515.8069555355136</v>
       </c>
       <c r="P4" t="n">
         <v>515.8069555355138</v>
@@ -35488,13 +35488,13 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J12" t="n">
-        <v>76.84296941552533</v>
+        <v>288.4644971811452</v>
       </c>
       <c r="K12" t="n">
         <v>144.165317551548</v>
       </c>
       <c r="L12" t="n">
-        <v>515.8069555355138</v>
+        <v>201.4515079650912</v>
       </c>
       <c r="M12" t="n">
         <v>238.2616716566319</v>
@@ -35509,10 +35509,10 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.709757779949</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R12" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>329.286837714494</v>
       </c>
       <c r="L13" t="n">
-        <v>486.8404317482685</v>
+        <v>106.6496301410312</v>
       </c>
       <c r="M13" t="n">
-        <v>363.6735857398412</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="N13" t="n">
-        <v>513.6386465400071</v>
+        <v>207.2760564514687</v>
       </c>
       <c r="O13" t="n">
-        <v>99.7327636016805</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P13" t="n">
         <v>82.20974973021747</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.7935129737709</v>
+        <v>200.6960355777093</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J15" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K15" t="n">
         <v>144.165317551548</v>
@@ -35737,19 +35737,19 @@
         <v>238.2616716566318</v>
       </c>
       <c r="N15" t="n">
-        <v>515.8069555355136</v>
+        <v>246.9328044879842</v>
       </c>
       <c r="O15" t="n">
         <v>222.2480852614988</v>
       </c>
       <c r="P15" t="n">
-        <v>224.4684094033812</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q15" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R15" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842296</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K16" t="n">
-        <v>79.50642446800707</v>
+        <v>277.1698280695583</v>
       </c>
       <c r="L16" t="n">
         <v>486.8404317482685</v>
       </c>
       <c r="M16" t="n">
-        <v>515.8069555355136</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N16" t="n">
-        <v>111.5851891239666</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O16" t="n">
         <v>481.2502628978454</v>
       </c>
       <c r="P16" t="n">
-        <v>200.3927513009071</v>
+        <v>82.20974973021745</v>
       </c>
       <c r="Q16" t="n">
         <v>47.7935129737709</v>
@@ -35889,7 +35889,7 @@
         <v>209.4672480648086</v>
       </c>
       <c r="L17" t="n">
-        <v>265.9197509611577</v>
+        <v>265.9197509611579</v>
       </c>
       <c r="M17" t="n">
         <v>301.0852264420489</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.03620898164121</v>
+        <v>19.34196065395248</v>
       </c>
       <c r="J18" t="n">
-        <v>76.84296941552533</v>
+        <v>288.4644971811453</v>
       </c>
       <c r="K18" t="n">
         <v>144.165317551548</v>
@@ -35983,10 +35983,10 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q18" t="n">
-        <v>403.3709570226836</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R18" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K19" t="n">
-        <v>329.286837714494</v>
+        <v>79.50642446800707</v>
       </c>
       <c r="L19" t="n">
-        <v>181.8045393486571</v>
+        <v>367.8168798592749</v>
       </c>
       <c r="M19" t="n">
-        <v>515.8069555355136</v>
+        <v>515.8069555355137</v>
       </c>
       <c r="N19" t="n">
-        <v>513.6386465400071</v>
+        <v>111.5851891239666</v>
       </c>
       <c r="O19" t="n">
-        <v>99.73276360168049</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P19" t="n">
-        <v>82.20974973021745</v>
+        <v>398.1251078850736</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.6960355777093</v>
+        <v>47.7935129737709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>39.77617086708311</v>
       </c>
       <c r="J20" t="n">
-        <v>134.2053002425976</v>
+        <v>134.2053002425973</v>
       </c>
       <c r="K20" t="n">
         <v>209.4672480648086</v>
@@ -36144,7 +36144,7 @@
         <v>172.0632193728913</v>
       </c>
       <c r="R20" t="n">
-        <v>86.06869441248961</v>
+        <v>86.06869441248986</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J21" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K21" t="n">
-        <v>462.3075526756587</v>
+        <v>144.165317551548</v>
       </c>
       <c r="L21" t="n">
         <v>201.4515079650911</v>
@@ -36223,7 +36223,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R21" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842296</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K22" t="n">
-        <v>329.286837714494</v>
+        <v>79.50642446800707</v>
       </c>
       <c r="L22" t="n">
-        <v>106.6496301410312</v>
+        <v>486.8404317482685</v>
       </c>
       <c r="M22" t="n">
-        <v>515.8069555355136</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N22" t="n">
-        <v>111.5851891239666</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O22" t="n">
-        <v>413.9282946744293</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P22" t="n">
-        <v>398.1251078850736</v>
+        <v>201.1643486365953</v>
       </c>
       <c r="Q22" t="n">
         <v>47.7935129737709</v>
@@ -36360,7 +36360,7 @@
         <v>529.8913797452502</v>
       </c>
       <c r="K23" t="n">
-        <v>209.4672480648086</v>
+        <v>452.5658278638434</v>
       </c>
       <c r="L23" t="n">
         <v>265.9197509611579</v>
@@ -36372,7 +36372,7 @@
         <v>306.7144172126735</v>
       </c>
       <c r="O23" t="n">
-        <v>530.5314379369601</v>
+        <v>287.4328581379252</v>
       </c>
       <c r="P23" t="n">
         <v>992.6632284775062</v>
@@ -36436,7 +36436,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J24" t="n">
-        <v>76.84296941552533</v>
+        <v>288.4644971811455</v>
       </c>
       <c r="K24" t="n">
         <v>144.165317551548</v>
@@ -36457,7 +36457,7 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q24" t="n">
-        <v>320.5444979918815</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R24" t="n">
         <v>146.8912404293595</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.50280432646061</v>
+        <v>119.2116090216332</v>
       </c>
       <c r="K25" t="n">
-        <v>324.3405751011412</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L25" t="n">
         <v>486.8404317482685</v>
       </c>
       <c r="M25" t="n">
-        <v>530.6945073118877</v>
+        <v>447.0394400033622</v>
       </c>
       <c r="N25" t="n">
         <v>513.6386465400071</v>
@@ -36594,16 +36594,16 @@
         <v>39.77617086708311</v>
       </c>
       <c r="J26" t="n">
-        <v>134.2053002425976</v>
+        <v>529.8913797452502</v>
       </c>
       <c r="K26" t="n">
         <v>967.9675134813341</v>
       </c>
       <c r="L26" t="n">
-        <v>265.9197509611579</v>
+        <v>1031.613911071027</v>
       </c>
       <c r="M26" t="n">
-        <v>301.0852264420489</v>
+        <v>423.5918584829143</v>
       </c>
       <c r="N26" t="n">
         <v>306.7144172126735</v>
@@ -36612,13 +36612,13 @@
         <v>287.4328581379252</v>
       </c>
       <c r="P26" t="n">
-        <v>872.9476223626676</v>
+        <v>239.6542513562369</v>
       </c>
       <c r="Q26" t="n">
-        <v>668.8802975170682</v>
+        <v>172.0632193728913</v>
       </c>
       <c r="R26" t="n">
-        <v>239.8451169152688</v>
+        <v>86.06869441248986</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J27" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K27" t="n">
         <v>144.165317551548</v>
@@ -36685,7 +36685,7 @@
         <v>238.2616716566318</v>
       </c>
       <c r="N27" t="n">
-        <v>458.5543322536043</v>
+        <v>246.9328044879842</v>
       </c>
       <c r="O27" t="n">
         <v>222.2480852614988</v>
@@ -36697,7 +36697,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R27" t="n">
-        <v>146.8912404293595</v>
+        <v>63.45974549842296</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,10 +36761,10 @@
         <v>486.8404317482685</v>
       </c>
       <c r="M28" t="n">
-        <v>530.6945073118877</v>
+        <v>447.0394400033622</v>
       </c>
       <c r="N28" t="n">
-        <v>429.9835792314817</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O28" t="n">
         <v>481.2502628978454</v>
@@ -36837,19 +36837,19 @@
         <v>967.9675134813341</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.613911071027</v>
+        <v>265.9197509611579</v>
       </c>
       <c r="M29" t="n">
-        <v>819.2779379855663</v>
+        <v>301.0852264420489</v>
       </c>
       <c r="N29" t="n">
         <v>306.7144172126735</v>
       </c>
       <c r="O29" t="n">
-        <v>287.4328581379252</v>
+        <v>1031.613911071027</v>
       </c>
       <c r="P29" t="n">
-        <v>239.6542513562369</v>
+        <v>779.3600700765219</v>
       </c>
       <c r="Q29" t="n">
         <v>172.0632193728913</v>
@@ -36910,7 +36910,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J30" t="n">
-        <v>371.895992112082</v>
+        <v>288.4644971811455</v>
       </c>
       <c r="K30" t="n">
         <v>144.165317551548</v>
@@ -36934,7 +36934,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R30" t="n">
-        <v>63.45974549842296</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,10 +36998,10 @@
         <v>486.8404317482685</v>
       </c>
       <c r="M31" t="n">
-        <v>530.6945073118877</v>
+        <v>447.0394400033622</v>
       </c>
       <c r="N31" t="n">
-        <v>429.9835792314817</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O31" t="n">
         <v>481.2502628978454</v>
@@ -37071,10 +37071,10 @@
         <v>529.8913797452502</v>
       </c>
       <c r="K32" t="n">
-        <v>209.4672480648086</v>
+        <v>967.9675134813341</v>
       </c>
       <c r="L32" t="n">
-        <v>517.8462549483598</v>
+        <v>265.9197509611579</v>
       </c>
       <c r="M32" t="n">
         <v>301.0852264420489</v>
@@ -37083,16 +37083,16 @@
         <v>306.7144172126735</v>
       </c>
       <c r="O32" t="n">
-        <v>1031.613911071027</v>
+        <v>287.4328581379252</v>
       </c>
       <c r="P32" t="n">
-        <v>239.6542513562369</v>
+        <v>992.6632284775062</v>
       </c>
       <c r="Q32" t="n">
-        <v>668.8802975170682</v>
+        <v>172.0632193728913</v>
       </c>
       <c r="R32" t="n">
-        <v>239.8451169152688</v>
+        <v>221.2605094419552</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J33" t="n">
-        <v>76.84296941552533</v>
+        <v>288.4644971811455</v>
       </c>
       <c r="K33" t="n">
         <v>144.165317551548</v>
@@ -37168,7 +37168,7 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q33" t="n">
-        <v>320.5444979918815</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R33" t="n">
         <v>146.8912404293595</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>40.50280432646061</v>
+        <v>119.2116090216332</v>
       </c>
       <c r="K34" t="n">
         <v>329.286837714494</v>
@@ -37247,7 +37247,7 @@
         <v>398.1251078850736</v>
       </c>
       <c r="Q34" t="n">
-        <v>195.7497729643567</v>
+        <v>117.0409682691841</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>172.0632193728913</v>
       </c>
       <c r="R35" t="n">
-        <v>86.06869441249007</v>
+        <v>86.06869441248961</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J36" t="n">
-        <v>288.4644971811455</v>
+        <v>288.4644971811454</v>
       </c>
       <c r="K36" t="n">
         <v>144.165317551548</v>
@@ -37466,22 +37466,22 @@
         <v>40.50280432646061</v>
       </c>
       <c r="K37" t="n">
-        <v>329.286837714494</v>
+        <v>79.50642446800707</v>
       </c>
       <c r="L37" t="n">
-        <v>486.8404317482685</v>
+        <v>281.6787805980902</v>
       </c>
       <c r="M37" t="n">
-        <v>112.9819007837849</v>
+        <v>515.8069555355136</v>
       </c>
       <c r="N37" t="n">
-        <v>145.6062787402148</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O37" t="n">
         <v>481.2502628978454</v>
       </c>
       <c r="P37" t="n">
-        <v>398.1251078850736</v>
+        <v>82.20974973021745</v>
       </c>
       <c r="Q37" t="n">
         <v>47.7935129737709</v>
@@ -37542,7 +37542,7 @@
         <v>39.77617086708311</v>
       </c>
       <c r="J38" t="n">
-        <v>134.2053002425976</v>
+        <v>134.2053002425973</v>
       </c>
       <c r="K38" t="n">
         <v>209.4672480648086</v>
@@ -37621,7 +37621,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J39" t="n">
-        <v>288.4644971811453</v>
+        <v>288.4644971811454</v>
       </c>
       <c r="K39" t="n">
         <v>144.165317551548</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K40" t="n">
         <v>79.50642446800707</v>
       </c>
       <c r="L40" t="n">
-        <v>486.8404317482685</v>
+        <v>347.2809217393989</v>
       </c>
       <c r="M40" t="n">
-        <v>112.9819007837849</v>
+        <v>515.8069555355136</v>
       </c>
       <c r="N40" t="n">
-        <v>479.690722842447</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O40" t="n">
-        <v>481.2502628978454</v>
+        <v>99.73276360168049</v>
       </c>
       <c r="P40" t="n">
-        <v>82.20974973021745</v>
+        <v>398.1251078850736</v>
       </c>
       <c r="Q40" t="n">
-        <v>200.6960355777093</v>
+        <v>47.7935129737709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J42" t="n">
-        <v>76.84296941552533</v>
+        <v>288.4644971811454</v>
       </c>
       <c r="K42" t="n">
-        <v>462.3075526756587</v>
+        <v>144.165317551548</v>
       </c>
       <c r="L42" t="n">
         <v>201.4515079650911</v>
@@ -37882,7 +37882,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R42" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K43" t="n">
-        <v>329.286837714494</v>
+        <v>79.50642446800707</v>
       </c>
       <c r="L43" t="n">
-        <v>289.2501940654059</v>
+        <v>106.6496301410312</v>
       </c>
       <c r="M43" t="n">
-        <v>112.9819007837849</v>
+        <v>515.8069555355136</v>
       </c>
       <c r="N43" t="n">
-        <v>111.5851891239666</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O43" t="n">
         <v>481.2502628978454</v>
       </c>
       <c r="P43" t="n">
-        <v>398.1251078850736</v>
+        <v>104.336377583338</v>
       </c>
       <c r="Q43" t="n">
         <v>200.6960355777093</v>
@@ -38095,7 +38095,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J45" t="n">
-        <v>76.84296941552533</v>
+        <v>288.4644971811452</v>
       </c>
       <c r="K45" t="n">
         <v>144.165317551548</v>
@@ -38116,7 +38116,7 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q45" t="n">
-        <v>320.5444979918811</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R45" t="n">
         <v>146.8912404293595</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K46" t="n">
         <v>329.286837714494</v>
@@ -38183,19 +38183,19 @@
         <v>486.8404317482685</v>
       </c>
       <c r="M46" t="n">
-        <v>112.9819007837849</v>
+        <v>442.3823904350137</v>
       </c>
       <c r="N46" t="n">
-        <v>111.5851891239666</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O46" t="n">
-        <v>283.6600252149831</v>
+        <v>99.7327636016805</v>
       </c>
       <c r="P46" t="n">
-        <v>398.1251078850736</v>
+        <v>82.20974973021747</v>
       </c>
       <c r="Q46" t="n">
-        <v>200.6960355777093</v>
+        <v>47.7935129737709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
